--- a/Low rent homes launch report - research resource planning.xlsx
+++ b/Low rent homes launch report - research resource planning.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\@Communications, Policy and Campaigns\Research\RESEARCH\Research Team\Personal Folders\SM\Low rent homes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\@Communications, Policy and Campaigns\Research\RESEARCH\More Affordable Homes\Future of low rent homes\low_rent_homes_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7164" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7164"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Point to evidence</t>
   </si>
@@ -48,42 +48,15 @@
     <t>Check and present LIPR results</t>
   </si>
   <si>
-    <t>Show change over time</t>
-  </si>
-  <si>
-    <t>Who are unable to access home ownership in the short term</t>
-  </si>
-  <si>
-    <t>Double check LIPR shared ownership results</t>
-  </si>
-  <si>
     <t>And who are unlikely to access social housing due to short supply</t>
   </si>
   <si>
-    <t>Projection to 2021/2022</t>
-  </si>
-  <si>
-    <t>TA/waiting lists</t>
-  </si>
-  <si>
     <t xml:space="preserve">How do the current numbers of people needing low rent homes and number of social/affordable rent homes compare? (turnover * stock?) </t>
   </si>
   <si>
-    <t>How is this likely to change in the future? (RtB? RtB extension?)</t>
-  </si>
-  <si>
     <t>What is the shortfall in genuinely affordable social rented homes?</t>
   </si>
   <si>
-    <t>And who are unlikely to access social housing due to allocations</t>
-  </si>
-  <si>
-    <t>Who is currently receiving general needs social housing?</t>
-  </si>
-  <si>
-    <t>How does this compare to LIPR?</t>
-  </si>
-  <si>
     <t>What level should rents be set at?</t>
   </si>
   <si>
@@ -102,18 +75,9 @@
     <t>Time left to leaving</t>
   </si>
   <si>
-    <t>Minus handover time</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Time on research report</t>
-  </si>
-  <si>
-    <t>Time for launch story</t>
-  </si>
-  <si>
     <t>Base group</t>
   </si>
   <si>
@@ -223,6 +187,12 @@
   </si>
   <si>
     <t>Modelling likely subsidy need</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>Sign off/help emily</t>
   </si>
 </sst>
 </file>
@@ -238,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,11 +248,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DL17"/>
+  <dimension ref="A1:DL10"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:116" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -622,6 +600,9 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:116" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -634,701 +615,345 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
+      <c r="F2" s="7">
+        <v>0.75</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>20.75</v>
       </c>
     </row>
-    <row r="3" spans="1:116" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:116" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:116" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+    </row>
+    <row r="5" spans="1:116" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:116" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <f>I2-2</f>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:116" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="4"/>
+      <c r="CV6" s="4"/>
+      <c r="CW6" s="4"/>
+      <c r="CX6" s="4"/>
+      <c r="CY6" s="4"/>
+      <c r="CZ6" s="4"/>
+      <c r="DA6" s="4"/>
+      <c r="DB6" s="4"/>
+      <c r="DC6" s="4"/>
+      <c r="DD6" s="4"/>
+      <c r="DE6" s="4"/>
+      <c r="DF6" s="4"/>
+      <c r="DG6" s="4"/>
+      <c r="DH6" s="4"/>
+      <c r="DI6" s="4"/>
+      <c r="DJ6" s="4"/>
+      <c r="DK6" s="4"/>
+      <c r="DL6" s="4"/>
+    </row>
+    <row r="7" spans="1:116" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="BR7" s="4"/>
+      <c r="BS7" s="4"/>
+      <c r="BT7" s="4"/>
+      <c r="BU7" s="4"/>
+      <c r="BV7" s="4"/>
+      <c r="BW7" s="4"/>
+      <c r="BX7" s="4"/>
+      <c r="BY7" s="4"/>
+      <c r="BZ7" s="4"/>
+      <c r="CA7" s="4"/>
+      <c r="CB7" s="4"/>
+      <c r="CC7" s="4"/>
+      <c r="CD7" s="4"/>
+      <c r="CE7" s="4"/>
+      <c r="CF7" s="4"/>
+      <c r="CG7" s="4"/>
+      <c r="CH7" s="4"/>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="4"/>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
+      <c r="CS7" s="4"/>
+      <c r="CT7" s="4"/>
+      <c r="CU7" s="4"/>
+      <c r="CV7" s="4"/>
+      <c r="CW7" s="4"/>
+      <c r="CX7" s="4"/>
+      <c r="CY7" s="4"/>
+      <c r="CZ7" s="4"/>
+      <c r="DA7" s="4"/>
+      <c r="DB7" s="4"/>
+      <c r="DC7" s="4"/>
+      <c r="DD7" s="4"/>
+      <c r="DE7" s="4"/>
+      <c r="DF7" s="4"/>
+      <c r="DG7" s="4"/>
+      <c r="DH7" s="4"/>
+      <c r="DI7" s="4"/>
+      <c r="DJ7" s="4"/>
+      <c r="DK7" s="4"/>
+      <c r="DL7" s="4"/>
+    </row>
+    <row r="8" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>SUM(D2:D4)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <f>D17</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:116" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5">
-        <f>I3-I4</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:116" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:116" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:116" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:116" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:116" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:116" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
-      <c r="BM11" s="5"/>
-      <c r="BN11" s="5"/>
-      <c r="BO11" s="5"/>
-      <c r="BP11" s="5"/>
-      <c r="BQ11" s="5"/>
-      <c r="BR11" s="5"/>
-      <c r="BS11" s="5"/>
-      <c r="BT11" s="5"/>
-      <c r="BU11" s="5"/>
-      <c r="BV11" s="5"/>
-      <c r="BW11" s="5"/>
-      <c r="BX11" s="5"/>
-      <c r="BY11" s="5"/>
-      <c r="BZ11" s="5"/>
-      <c r="CA11" s="5"/>
-      <c r="CB11" s="5"/>
-      <c r="CC11" s="5"/>
-      <c r="CD11" s="5"/>
-      <c r="CE11" s="5"/>
-      <c r="CF11" s="5"/>
-      <c r="CG11" s="5"/>
-      <c r="CH11" s="5"/>
-      <c r="CI11" s="5"/>
-      <c r="CJ11" s="5"/>
-      <c r="CK11" s="5"/>
-      <c r="CL11" s="5"/>
-      <c r="CM11" s="5"/>
-      <c r="CN11" s="5"/>
-      <c r="CO11" s="5"/>
-      <c r="CP11" s="5"/>
-      <c r="CQ11" s="5"/>
-      <c r="CR11" s="5"/>
-      <c r="CS11" s="5"/>
-      <c r="CT11" s="5"/>
-      <c r="CU11" s="5"/>
-      <c r="CV11" s="5"/>
-      <c r="CW11" s="5"/>
-      <c r="CX11" s="5"/>
-      <c r="CY11" s="5"/>
-      <c r="CZ11" s="5"/>
-      <c r="DA11" s="5"/>
-      <c r="DB11" s="5"/>
-      <c r="DC11" s="5"/>
-      <c r="DD11" s="5"/>
-      <c r="DE11" s="5"/>
-      <c r="DF11" s="5"/>
-      <c r="DG11" s="5"/>
-      <c r="DH11" s="5"/>
-      <c r="DI11" s="5"/>
-      <c r="DJ11" s="5"/>
-      <c r="DK11" s="5"/>
-      <c r="DL11" s="5"/>
-    </row>
-    <row r="12" spans="1:116" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
-      <c r="BL12" s="5"/>
-      <c r="BM12" s="5"/>
-      <c r="BN12" s="5"/>
-      <c r="BO12" s="5"/>
-      <c r="BP12" s="5"/>
-      <c r="BQ12" s="5"/>
-      <c r="BR12" s="5"/>
-      <c r="BS12" s="5"/>
-      <c r="BT12" s="5"/>
-      <c r="BU12" s="5"/>
-      <c r="BV12" s="5"/>
-      <c r="BW12" s="5"/>
-      <c r="BX12" s="5"/>
-      <c r="BY12" s="5"/>
-      <c r="BZ12" s="5"/>
-      <c r="CA12" s="5"/>
-      <c r="CB12" s="5"/>
-      <c r="CC12" s="5"/>
-      <c r="CD12" s="5"/>
-      <c r="CE12" s="5"/>
-      <c r="CF12" s="5"/>
-      <c r="CG12" s="5"/>
-      <c r="CH12" s="5"/>
-      <c r="CI12" s="5"/>
-      <c r="CJ12" s="5"/>
-      <c r="CK12" s="5"/>
-      <c r="CL12" s="5"/>
-      <c r="CM12" s="5"/>
-      <c r="CN12" s="5"/>
-      <c r="CO12" s="5"/>
-      <c r="CP12" s="5"/>
-      <c r="CQ12" s="5"/>
-      <c r="CR12" s="5"/>
-      <c r="CS12" s="5"/>
-      <c r="CT12" s="5"/>
-      <c r="CU12" s="5"/>
-      <c r="CV12" s="5"/>
-      <c r="CW12" s="5"/>
-      <c r="CX12" s="5"/>
-      <c r="CY12" s="5"/>
-      <c r="CZ12" s="5"/>
-      <c r="DA12" s="5"/>
-      <c r="DB12" s="5"/>
-      <c r="DC12" s="5"/>
-      <c r="DD12" s="5"/>
-      <c r="DE12" s="5"/>
-      <c r="DF12" s="5"/>
-      <c r="DG12" s="5"/>
-      <c r="DH12" s="5"/>
-      <c r="DI12" s="5"/>
-      <c r="DJ12" s="5"/>
-      <c r="DK12" s="5"/>
-      <c r="DL12" s="5"/>
-    </row>
-    <row r="13" spans="1:116" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
-      <c r="BJ13" s="5"/>
-      <c r="BK13" s="5"/>
-      <c r="BL13" s="5"/>
-      <c r="BM13" s="5"/>
-      <c r="BN13" s="5"/>
-      <c r="BO13" s="5"/>
-      <c r="BP13" s="5"/>
-      <c r="BQ13" s="5"/>
-      <c r="BR13" s="5"/>
-      <c r="BS13" s="5"/>
-      <c r="BT13" s="5"/>
-      <c r="BU13" s="5"/>
-      <c r="BV13" s="5"/>
-      <c r="BW13" s="5"/>
-      <c r="BX13" s="5"/>
-      <c r="BY13" s="5"/>
-      <c r="BZ13" s="5"/>
-      <c r="CA13" s="5"/>
-      <c r="CB13" s="5"/>
-      <c r="CC13" s="5"/>
-      <c r="CD13" s="5"/>
-      <c r="CE13" s="5"/>
-      <c r="CF13" s="5"/>
-      <c r="CG13" s="5"/>
-      <c r="CH13" s="5"/>
-      <c r="CI13" s="5"/>
-      <c r="CJ13" s="5"/>
-      <c r="CK13" s="5"/>
-      <c r="CL13" s="5"/>
-      <c r="CM13" s="5"/>
-      <c r="CN13" s="5"/>
-      <c r="CO13" s="5"/>
-      <c r="CP13" s="5"/>
-      <c r="CQ13" s="5"/>
-      <c r="CR13" s="5"/>
-      <c r="CS13" s="5"/>
-      <c r="CT13" s="5"/>
-      <c r="CU13" s="5"/>
-      <c r="CV13" s="5"/>
-      <c r="CW13" s="5"/>
-      <c r="CX13" s="5"/>
-      <c r="CY13" s="5"/>
-      <c r="CZ13" s="5"/>
-      <c r="DA13" s="5"/>
-      <c r="DB13" s="5"/>
-      <c r="DC13" s="5"/>
-      <c r="DD13" s="5"/>
-      <c r="DE13" s="5"/>
-      <c r="DF13" s="5"/>
-      <c r="DG13" s="5"/>
-      <c r="DH13" s="5"/>
-      <c r="DI13" s="5"/>
-      <c r="DJ13" s="5"/>
-      <c r="DK13" s="5"/>
-      <c r="DL13" s="5"/>
-    </row>
-    <row r="14" spans="1:116" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="5"/>
-      <c r="BL14" s="5"/>
-      <c r="BM14" s="5"/>
-      <c r="BN14" s="5"/>
-      <c r="BO14" s="5"/>
-      <c r="BP14" s="5"/>
-      <c r="BQ14" s="5"/>
-      <c r="BR14" s="5"/>
-      <c r="BS14" s="5"/>
-      <c r="BT14" s="5"/>
-      <c r="BU14" s="5"/>
-      <c r="BV14" s="5"/>
-      <c r="BW14" s="5"/>
-      <c r="BX14" s="5"/>
-      <c r="BY14" s="5"/>
-      <c r="BZ14" s="5"/>
-      <c r="CA14" s="5"/>
-      <c r="CB14" s="5"/>
-      <c r="CC14" s="5"/>
-      <c r="CD14" s="5"/>
-      <c r="CE14" s="5"/>
-      <c r="CF14" s="5"/>
-      <c r="CG14" s="5"/>
-      <c r="CH14" s="5"/>
-      <c r="CI14" s="5"/>
-      <c r="CJ14" s="5"/>
-      <c r="CK14" s="5"/>
-      <c r="CL14" s="5"/>
-      <c r="CM14" s="5"/>
-      <c r="CN14" s="5"/>
-      <c r="CO14" s="5"/>
-      <c r="CP14" s="5"/>
-      <c r="CQ14" s="5"/>
-      <c r="CR14" s="5"/>
-      <c r="CS14" s="5"/>
-      <c r="CT14" s="5"/>
-      <c r="CU14" s="5"/>
-      <c r="CV14" s="5"/>
-      <c r="CW14" s="5"/>
-      <c r="CX14" s="5"/>
-      <c r="CY14" s="5"/>
-      <c r="CZ14" s="5"/>
-      <c r="DA14" s="5"/>
-      <c r="DB14" s="5"/>
-      <c r="DC14" s="5"/>
-      <c r="DD14" s="5"/>
-      <c r="DE14" s="5"/>
-      <c r="DF14" s="5"/>
-      <c r="DG14" s="5"/>
-      <c r="DH14" s="5"/>
-      <c r="DI14" s="5"/>
-      <c r="DJ14" s="5"/>
-      <c r="DK14" s="5"/>
-      <c r="DL14" s="5"/>
-    </row>
-    <row r="15" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <f>SUM(D2:D14)</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <f>SUM(D2:D10)</f>
-        <v>16.5</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14">
+  <autoFilter ref="A1:E7">
     <sortState ref="A2:E15">
       <sortCondition ref="A1:A14"/>
     </sortState>
@@ -1342,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1355,21 +980,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1377,10 +1002,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1388,10 +1013,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1399,10 +1024,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1410,10 +1035,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1421,10 +1046,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1432,10 +1057,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1443,21 +1068,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1465,10 +1090,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1476,10 +1101,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1487,10 +1112,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1498,66 +1123,66 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1565,10 +1190,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1576,50 +1201,50 @@
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
